--- a/public/files/Registration Template.xlsx
+++ b/public/files/Registration Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\api\patnariverestate\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\api\qrc\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757FDF16-B7B9-47F0-AFEE-E57BB79870C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6D598-8347-475F-804B-23A516B76650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-8246" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Student ID</t>
   </si>
@@ -75,79 +75,106 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Infant One Group 2</t>
-  </si>
-  <si>
-    <t>Infant Two Group 2</t>
-  </si>
-  <si>
-    <t>Infant Two Group 1</t>
-  </si>
-  <si>
-    <t>Infant One Group 1</t>
-  </si>
-  <si>
-    <t>Standard One Group 1</t>
-  </si>
-  <si>
-    <t>Standard One Group 2</t>
-  </si>
-  <si>
-    <t>Standard Two Group 1</t>
-  </si>
-  <si>
-    <t>Standard Two Group 2</t>
-  </si>
-  <si>
-    <t>Standard Three Group 1</t>
-  </si>
-  <si>
-    <t>Standard Three Group 2</t>
-  </si>
-  <si>
-    <t>Standard Four Group 1</t>
-  </si>
-  <si>
-    <t>Standard Four Group 2</t>
-  </si>
-  <si>
-    <t>Standard Four Group 3</t>
-  </si>
-  <si>
-    <t>Standard Five Group 1</t>
-  </si>
-  <si>
-    <t>Standard Five Group 2</t>
-  </si>
-  <si>
-    <t>Standard Five Group 3</t>
-  </si>
-  <si>
     <t>Birth Certificate Pin</t>
   </si>
   <si>
-    <t>Williams</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Clarke</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Capildeo</t>
-  </si>
-  <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>1O</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2O</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>3O</t>
+  </si>
+  <si>
+    <t>3R</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>4O</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>5L</t>
+  </si>
+  <si>
+    <t>5O</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>6-LO</t>
+  </si>
+  <si>
+    <t>6-LR</t>
+  </si>
+  <si>
+    <t>6-LY</t>
+  </si>
+  <si>
+    <t>6-UO</t>
+  </si>
+  <si>
+    <t>6-UR</t>
+  </si>
+  <si>
+    <t>6-UY</t>
+  </si>
+  <si>
+    <t>Grant-Gibbon</t>
+  </si>
+  <si>
+    <t>Williams-Mottley</t>
+  </si>
+  <si>
+    <t>Naipaul-Murray</t>
+  </si>
+  <si>
+    <t>James-Phillip</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -588,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -619,17 +646,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97B94D8F-5F36-4F45-A2B6-E7325C6FACB4}">
-          <x14:formula1>
-            <xm:f>Classes!$A$1:$A$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Houses!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE3303D0-4992-4DB1-9E58-DDC0B02D0885}">
+          <x14:formula1>
+            <xm:f>Classes!$A$1:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -641,9 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,34 +677,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -689,11 +714,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -702,82 +725,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +882,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45453</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +891,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY() +365</f>
-        <v>45818</v>
+        <v>45951</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/Registration Template.xlsx
+++ b/public/files/Registration Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\api\qrc\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6D598-8347-475F-804B-23A516B76650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D386C-C0AC-4CCC-9DB7-8A448F087C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,24 +144,6 @@
     <t>5Y</t>
   </si>
   <si>
-    <t>6-LO</t>
-  </si>
-  <si>
-    <t>6-LR</t>
-  </si>
-  <si>
-    <t>6-LY</t>
-  </si>
-  <si>
-    <t>6-UO</t>
-  </si>
-  <si>
-    <t>6-UR</t>
-  </si>
-  <si>
-    <t>6-UY</t>
-  </si>
-  <si>
     <t>Grant-Gibbon</t>
   </si>
   <si>
@@ -175,6 +157,24 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>6L-O</t>
+  </si>
+  <si>
+    <t>6L-R</t>
+  </si>
+  <si>
+    <t>6L-Y</t>
+  </si>
+  <si>
+    <t>6U-O</t>
+  </si>
+  <si>
+    <t>6U-R</t>
+  </si>
+  <si>
+    <t>6U-Y</t>
   </si>
 </sst>
 </file>
@@ -593,18 +593,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="30" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.84375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.53515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.84375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,38 +670,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -716,136 +716,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15234375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -862,13 +864,13 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -876,22 +878,22 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY() +365</f>
-        <v>45951</v>
+        <v>45979</v>
       </c>
     </row>
   </sheetData>
